--- a/hasil/pelabelan/hasil_gabungan_2019-04-20 20-52-59.844234.xlsx
+++ b/hasil/pelabelan/hasil_gabungan_2019-04-20 20-52-59.844234.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
